--- a/content/species/data/amphibian_rli_increase.xlsx
+++ b/content/species/data/amphibian_rli_increase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maphale Monyeki Projects\NBA 2025\2. NBA 2025 - Modules\1. Terrestrial realm\2. Terrestrial realm - nba2025\nba-species\species\quarto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\species\quarto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6132C7DC-5467-4CE5-A178-8426B523DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AFFC8D-9B04-4A68-B342-954AB6CD34D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94A7674F-F120-4B77-A9BA-5E660C67A06B}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{94A7674F-F120-4B77-A9BA-5E660C67A06B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Taxon</t>
   </si>
   <si>
-    <t>Change of Status (2016 to 2025)</t>
-  </si>
-  <si>
     <t>Direction of change</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
   </si>
   <si>
     <t>[*Amietia hymenopus*]\*\* (https://www.inaturalist.org/observations?verifiable=true&amp;taxon_id=476398&amp;place_id=6986&amp;preferred_place_id=6986)</t>
+  </si>
+  <si>
+    <t>Change of status (2016 to 2025)</t>
   </si>
 </sst>
 </file>
@@ -502,16 +502,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9916F188-DE88-4CAE-98C2-703B4DE9398E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.3125" customWidth="1"/>
+    <col min="2" max="2" width="29.68359375" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" customWidth="1"/>
+    <col min="4" max="4" width="27.41796875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="7" customFormat="1">
@@ -519,55 +519,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="187.2">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="201.6">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="3" spans="1:4" ht="158.4">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="172.8">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:4" ht="187.2">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="201.6">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -576,15 +576,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9251B87A2689245AA9FD86C69F20C58" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a4ec884e7468e8b6decba7ff9ee350d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de6781d5-cbdf-44cc-b8b1-919d4413b058" xmlns:ns3="d08e37f2-beba-4595-a3e8-aa91f032b3fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b02cf9d369237c4b82eaa1e33230624f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -856,6 +847,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -870,14 +870,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8217B55-E0DA-4004-B599-CB3442C8A9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C5385B4-FC77-4158-A42F-8D4135992DEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -897,6 +889,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8217B55-E0DA-4004-B599-CB3442C8A9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A5A410E-81CD-4706-8086-DF1C2D66F289}">
   <ds:schemaRefs>
